--- a/Article/实验数据.xlsx
+++ b/Article/实验数据.xlsx
@@ -5,43 +5,45 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\music\musicgame\Article\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\学位论文\musicgame\Article\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40B058-8DF1-4911-8A3E-A6AA1DCF3684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E8242E-E855-4FE0-A84E-36F6189F7B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="10" windowWidth="17970" windowHeight="15260" tabRatio="765" xr2:uid="{5AF2D8CC-C407-45BA-9898-626EF700151E}"/>
+    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15720" tabRatio="765" xr2:uid="{5AF2D8CC-C407-45BA-9898-626EF700151E}"/>
   </bookViews>
   <sheets>
     <sheet name="人均水平变化" sheetId="1" r:id="rId1"/>
     <sheet name="曲目用户得分率与难度系数" sheetId="2" r:id="rId2"/>
-    <sheet name="人均水平与尝试次数" sheetId="4" r:id="rId3"/>
-    <sheet name="人工评分与机器评分的比对结果" sheetId="5" r:id="rId4"/>
+    <sheet name="人工评分与机器评分的比对结果" sheetId="5" r:id="rId3"/>
+    <sheet name="人均水平与尝试次数" sheetId="4" r:id="rId4"/>
     <sheet name="原始数据" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">人均水平变化!$B$2:$B$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">人均水平变化!$C$2:$C$18</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">人均水平变化!$B$23:$B$40</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">人均水平变化!$C$23:$C$40</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">人均水平变化!$B$2:$B$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">人均水平变化!$C$2:$C$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">人均水平变化!$B$44:$B$59</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">人均水平变化!$C$44:$C$59</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">人均水平变化!$B$23:$B$40</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">人均水平变化!$C$23:$C$40</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">人均水平变化!$B$44:$B$59</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">人均水平变化!$C$44:$C$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>节奏得分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,22 +361,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M：0.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD：0.088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M:0.688</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SD:0.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>节奏均分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +378,71 @@
   </si>
   <si>
     <t>音高预测得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD：0.087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M：0.645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD:0.135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>节奏人工评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高人工评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kendall_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +450,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +476,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,12 +492,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -440,11 +521,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -460,6 +553,2917 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>组节奏对比</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{07A3F8D1-4D4C-4B10-B9D2-0FC59C98DA04}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{79A23984-C666-4481-8E64-33D2019DD7C7}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>组节奏对比</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{79FB4CFB-22F3-4D04-B97B-9397FB355FFC}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D08AE331-4D58-4EF4-8D2F-68D2EA15B6E9}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>组节奏对比</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6809AFFB-0DA3-4D00-B326-4DEFA5E073A0}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3F5DF316-3AAD-4F46-A98B-D1B4CF490166}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>组节奏对比</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{79FB4CFB-22F3-4D04-B97B-9397FB355FFC}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D08AE331-4D58-4EF4-8D2F-68D2EA15B6E9}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606856</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431A9EF-A8C2-77AC-4898-ADCEE1E5ADA3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14201629" y="2463655"/>
+              <a:ext cx="10459461" cy="7442345"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>169520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>93041</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19016</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="图表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3997EC64-3B64-626B-AE07-3FAE61FE5600}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="24946065" y="2465974"/>
+              <a:ext cx="10452976" cy="7424406"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532278</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>444499</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="图表 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0202510-8E4C-6BC0-C0E3-2EA133C03EB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14200653" y="10228037"/>
+              <a:ext cx="10580221" cy="7504338"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>58827</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>64086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>649098</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>35323</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="图表 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108FC451-D904-4A40-9E32-31052F5FB447}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="37087265" y="6922086"/>
+              <a:ext cx="10591521" cy="8162737"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,22 +3763,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB7E619-2723-4F76-BE1A-D719B29FD5A8}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:CL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BV64" sqref="BV64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>49</v>
       </c>
@@ -788,7 +3792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -805,7 +3809,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -822,7 +3826,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -839,7 +3843,7 @@
         <v>0.68199999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -856,7 +3860,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -873,7 +3877,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -890,7 +3894,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -907,7 +3911,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -924,7 +3928,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -941,7 +3945,7 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -958,7 +3962,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -975,7 +3979,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -992,7 +3996,7 @@
         <v>0.93099999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +4013,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +4030,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +4047,7 @@
         <v>0.76300000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +4064,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +4081,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1094,7 +4098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1111,7 +4115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +4132,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1145,7 +4149,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +4166,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1179,7 +4183,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1196,7 +4200,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1213,7 +4217,7 @@
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1230,7 +4234,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +4251,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1264,7 +4268,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +4285,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +4302,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +4319,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +4336,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +4353,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +4370,7 @@
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1383,7 +4387,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +4404,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1417,7 +4421,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1434,7 +4438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1451,7 +4455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1468,7 +4472,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1485,7 +4489,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +4506,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1519,7 +4523,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1536,7 +4540,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -1553,7 +4557,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -1570,7 +4574,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +4591,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1604,7 +4608,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1621,7 +4625,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1637,8 +4641,11 @@
       <c r="E54">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AL54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +4662,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1672,7 +4679,7 @@
         <v>0.871</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1689,7 +4696,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1706,43 +4713,94 @@
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C59">
+        <v>0.497</v>
+      </c>
+      <c r="D59">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="E59">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B59">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="C59">
-        <v>0.58000000000000007</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B60">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C60">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
         <v>79</v>
       </c>
-      <c r="E59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>67</v>
       </c>
-      <c r="B60">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="C60">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" t="s">
-        <v>82</v>
+      <c r="B61">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C61">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="W62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="57:70" x14ac:dyDescent="0.3">
+      <c r="BR85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="57:70" x14ac:dyDescent="0.3">
+      <c r="BH87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="57:70" x14ac:dyDescent="0.3">
+      <c r="BE88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="82:82" x14ac:dyDescent="0.3">
+      <c r="CD111" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="118" spans="90:90" x14ac:dyDescent="0.3">
+      <c r="CL118" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1750,1133 +4808,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEAB962-E1C7-4DCC-8E76-A48CB29C0E0E}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.252</v>
+        <v>0.442</v>
       </c>
       <c r="D2" s="1">
         <v>0.72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.17299999999999999</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D3" s="1">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.13700000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="D4" s="1">
-        <v>0.84799999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.67</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.53800000000000003</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.24099999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="D7" s="1">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.27300000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>0.311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.53700000000000003</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.34300000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.50600000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.621</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.53100000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.627</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.57299999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.68400000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.218</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.442</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.52100000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0.315</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D31" s="1">
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0.247</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.71699999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.66600000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0.376</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.311</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.59199999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.59699999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.81899999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0.74</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>0.313</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0.313</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.59199999999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>0.376</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>0.497</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.76300000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.36099999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>0.252</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.85199999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.39200000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>0.439</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>0.309</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>0.378</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.40899999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>0.75</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.77900000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.53300000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>0.215</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.83499999999999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.69399999999999995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.59699999999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>0.23</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.46100000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>0.442</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.72299999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.58299999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>0.505</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>0.193</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.54800000000000004</v>
-      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2885,19 +5196,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF73176-DDAB-476C-811C-4C333921569D}">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3E1A5D-3C98-4312-9057-31F148C2505A}">
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="E2" sqref="E2:E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5">
+        <v>81.860636</v>
+      </c>
+      <c r="G2">
+        <v>0.442</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.54719999999999991</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="E3" s="5">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <v>68.882075999999998</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.69940000000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5">
+        <v>84.097236000000009</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.58639999999999992</v>
+      </c>
+      <c r="E5" s="5">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5">
+        <v>68.788115999999988</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="E6" s="5">
+        <v>77</v>
+      </c>
+      <c r="F6" s="5">
+        <v>90.862840000000006</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <v>76</v>
+      </c>
+      <c r="F7" s="5">
+        <v>86.992356000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>62</v>
+      </c>
+      <c r="F8" s="5">
+        <v>96.494555999999989</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5242</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.7964</v>
+      </c>
+      <c r="E9" s="5">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5">
+        <v>91</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.3982</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5">
+        <v>95.505076000000003</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.7984</v>
+      </c>
+      <c r="E11" s="5">
+        <v>87</v>
+      </c>
+      <c r="F11" s="5">
+        <v>96.549995999999993</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.1464</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5">
+        <v>69.62093200000001</v>
+      </c>
+      <c r="G12">
+        <v>0.252</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.66580000000000006</v>
+      </c>
+      <c r="E13" s="5">
+        <v>64</v>
+      </c>
+      <c r="F13" s="5">
+        <v>76.92537200000001</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.54380000000000006</v>
+      </c>
+      <c r="E14" s="5">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5">
+        <v>71.386092000000005</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5">
+        <v>60.286132000000002</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5">
+        <v>34.593572000000002</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.42780000000000001</v>
+      </c>
+      <c r="E17" s="5">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5">
+        <v>48.574252000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.3538</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="E18" s="5">
+        <v>65</v>
+      </c>
+      <c r="F18" s="5">
+        <v>46.736532000000004</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="N18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="E19" s="5">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43.479691999999993</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="N19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.4158</v>
+      </c>
+      <c r="E20" s="5">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5">
+        <v>49.495372000000003</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="N20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="E21" s="5">
+        <v>76</v>
+      </c>
+      <c r="F21" s="5">
+        <v>55.037052000000003</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="N21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.59439999999999993</v>
+      </c>
+      <c r="E22" s="5">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5">
+        <v>60.977035999999984</v>
+      </c>
+      <c r="G22">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="N22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="E23" s="5">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5">
+        <v>76.567356000000004</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.39460000000000012</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.59339999999999993</v>
+      </c>
+      <c r="E24" s="5">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5">
+        <v>53.253795999999987</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="N24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="E25" s="5">
+        <v>63</v>
+      </c>
+      <c r="F25" s="5">
+        <v>73.364195999999993</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="N25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.45160000000000011</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="E26" s="5">
+        <v>49</v>
+      </c>
+      <c r="F26" s="5">
+        <v>73.770315999999994</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="N26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.36799999999999988</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="E27" s="5">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5">
+        <v>47.898764</v>
+      </c>
+      <c r="G27">
+        <v>0.315</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="N27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="E28" s="5">
+        <v>26</v>
+      </c>
+      <c r="F28" s="5">
+        <v>71.515084000000002</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="N28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.36099999999999988</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="E29" s="5">
+        <v>59</v>
+      </c>
+      <c r="F29" s="5">
+        <v>60.523324000000002</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="N29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.5676000000000001</v>
+      </c>
+      <c r="E30" s="5">
+        <v>60</v>
+      </c>
+      <c r="F30" s="5">
+        <v>64.48520400000001</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="N30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="E31" s="5">
+        <v>50</v>
+      </c>
+      <c r="F31" s="5">
+        <v>95.719124000000008</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="N31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.5534</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.57539999999999991</v>
+      </c>
+      <c r="E32" s="5">
+        <v>89</v>
+      </c>
+      <c r="F32" s="5">
+        <v>70.502475999999987</v>
+      </c>
+      <c r="G32">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="N32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="E33" s="5">
+        <v>81</v>
+      </c>
+      <c r="F33" s="5">
+        <v>94</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.61340000000000006</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="E34" s="5">
+        <v>91</v>
+      </c>
+      <c r="F34" s="5">
+        <v>75.554035999999982</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="N34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.67039999999999988</v>
+      </c>
+      <c r="E35" s="5">
+        <v>82</v>
+      </c>
+      <c r="F35" s="5">
+        <v>79.588275999999993</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.60939999999999994</v>
+      </c>
+      <c r="E36" s="5">
+        <v>85</v>
+      </c>
+      <c r="F36" s="5">
+        <v>88.127635999999995</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="N36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.32379999999999998</v>
+      </c>
+      <c r="E37" s="5">
+        <v>71</v>
+      </c>
+      <c r="F37" s="5">
+        <v>23.371291999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="N37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.69380000000000008</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>92</v>
+      </c>
+      <c r="F38" s="5">
+        <v>55.391571999999996</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="N38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.42080000000000012</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="E39" s="5">
+        <v>56</v>
+      </c>
+      <c r="F39" s="5">
+        <v>33.736252000000007</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="N39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.56379999999999997</v>
+      </c>
+      <c r="E40" s="5">
+        <v>93</v>
+      </c>
+      <c r="F40" s="5">
+        <v>82.548891999999995</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.69780000000000009</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="E41" s="5">
+        <v>94</v>
+      </c>
+      <c r="F41" s="5">
+        <v>33.764091999999998</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="N41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.64040000000000008</v>
+      </c>
+      <c r="E42" s="5">
+        <v>42</v>
+      </c>
+      <c r="F42" s="5">
+        <v>71.151076000000003</v>
+      </c>
+      <c r="G42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="N42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="E43" s="5">
+        <v>28</v>
+      </c>
+      <c r="F43" s="5">
+        <v>62.749356000000006</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="N43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="E44" s="5">
+        <v>45</v>
+      </c>
+      <c r="F44" s="5">
+        <v>85</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="E45" s="5">
+        <v>63</v>
+      </c>
+      <c r="F45" s="5">
+        <v>90.526396000000005</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="N45" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="E46" s="5">
+        <v>68</v>
+      </c>
+      <c r="F46" s="5">
+        <v>75.744636</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="N46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="E47" s="5">
+        <v>60</v>
+      </c>
+      <c r="F47" s="5">
+        <v>31.775036</v>
+      </c>
+      <c r="G47">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.46339999999999998</v>
+      </c>
+      <c r="E48" s="5">
+        <v>53</v>
+      </c>
+      <c r="F48" s="5">
+        <v>47.580596</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="N48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="E49" s="5">
+        <v>59</v>
+      </c>
+      <c r="F49" s="5">
+        <v>22.192436000000001</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="N49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="E50" s="5">
+        <v>47</v>
+      </c>
+      <c r="F50" s="5">
+        <v>40.263595999999993</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="N50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="E51" s="5">
+        <v>73</v>
+      </c>
+      <c r="F51" s="5">
+        <v>29.369236000000004</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="N51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:K51">
+    <sortCondition ref="K2:K51"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF73176-DDAB-476C-811C-4C333921569D}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>60</v>
       </c>
@@ -2917,177 +6426,77 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3E1A5D-3C98-4312-9057-31F148C2505A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3101,9 +6510,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
